--- a/NEW HR/GUEVARRA, ROLANDO.xlsx
+++ b/NEW HR/GUEVARRA, ROLANDO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>2/18,20/2023</t>
+  </si>
+  <si>
+    <t>6/7-8/2023</t>
   </si>
 </sst>
 </file>
@@ -676,26 +679,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1585,10 +1588,10 @@
   </sheetPr>
   <dimension ref="A2:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,14 +1621,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1636,14 +1639,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1656,14 +1659,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1689,18 +1692,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3194,17 +3197,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3239,10 +3242,10 @@
   </sheetPr>
   <dimension ref="A2:K65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,14 +3275,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3290,14 +3293,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3310,14 +3313,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3343,18 +3346,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3411,7 +3414,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>97.25</v>
+        <v>95.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4502,17 +4505,25 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="C62" s="14"/>
       <c r="D62" s="40"/>
       <c r="E62" s="9"/>
       <c r="F62" s="21"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="40"/>
+      <c r="H62" s="40">
+        <v>2</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
+      <c r="K62" s="21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>

--- a/NEW HR/GUEVARRA, ROLANDO.xlsx
+++ b/NEW HR/GUEVARRA, ROLANDO.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -679,15 +679,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -696,9 +699,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1621,14 +1621,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1639,14 +1639,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1659,14 +1659,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1692,18 +1692,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3197,17 +3197,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3243,9 +3243,9 @@
   <dimension ref="A2:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A52" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,14 +3275,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3293,14 +3293,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3313,14 +3313,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3346,18 +3346,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3414,7 +3414,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>95.25</v>
+        <v>94.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4526,17 +4526,25 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="24">
+        <v>45108</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C63" s="14"/>
       <c r="D63" s="12"/>
       <c r="E63" s="9"/>
       <c r="F63" s="12"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="12"/>
+      <c r="H63" s="12">
+        <v>1</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
+      <c r="K63" s="41">
+        <v>45119</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
